--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H2">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J2">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>6.193740372372379</v>
+        <v>36.01488921187789</v>
       </c>
       <c r="R2">
-        <v>6.193740372372379</v>
+        <v>324.1340029069009</v>
       </c>
       <c r="S2">
-        <v>2.894619215798128E-05</v>
+        <v>9.955088731641972E-05</v>
       </c>
       <c r="T2">
-        <v>2.894619215798128E-05</v>
+        <v>9.955088731641972E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H3">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J3">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>122.7852879819918</v>
+        <v>576.7440648102454</v>
       </c>
       <c r="R3">
-        <v>122.7852879819918</v>
+        <v>5190.696583292209</v>
       </c>
       <c r="S3">
-        <v>0.0005738320185252545</v>
+        <v>0.001594212412220964</v>
       </c>
       <c r="T3">
-        <v>0.0005738320185252545</v>
+        <v>0.001594212412220964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H4">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J4">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>113.6666118373988</v>
+        <v>783.6621726915446</v>
       </c>
       <c r="R4">
-        <v>113.6666118373988</v>
+        <v>7052.959554223901</v>
       </c>
       <c r="S4">
-        <v>0.0005312162587357161</v>
+        <v>0.002166167003563268</v>
       </c>
       <c r="T4">
-        <v>0.0005312162587357161</v>
+        <v>0.002166167003563268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H5">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J5">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>108.9653843702068</v>
+        <v>509.7572649225013</v>
       </c>
       <c r="R5">
-        <v>108.9653843702068</v>
+        <v>4587.815384302512</v>
       </c>
       <c r="S5">
-        <v>0.0005092452645605765</v>
+        <v>0.001409050233098862</v>
       </c>
       <c r="T5">
-        <v>0.0005092452645605765</v>
+        <v>0.001409050233098862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H6">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I6">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J6">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>485.3297115370485</v>
+        <v>2293.453618179762</v>
       </c>
       <c r="R6">
-        <v>485.3297115370485</v>
+        <v>20641.08256361786</v>
       </c>
       <c r="S6">
-        <v>0.002268168545261137</v>
+        <v>0.006339470916199542</v>
       </c>
       <c r="T6">
-        <v>0.002268168545261137</v>
+        <v>0.006339470916199543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7481976483760761</v>
+        <v>3.444734333333333</v>
       </c>
       <c r="H7">
-        <v>0.7481976483760761</v>
+        <v>10.334203</v>
       </c>
       <c r="I7">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="J7">
-        <v>0.004097140916971185</v>
+        <v>0.01213700884209764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>39.74200580512423</v>
+        <v>191.2181432558063</v>
       </c>
       <c r="R7">
-        <v>39.74200580512423</v>
+        <v>1720.963289302257</v>
       </c>
       <c r="S7">
-        <v>0.0001857326377305198</v>
+        <v>0.0005285573896985815</v>
       </c>
       <c r="T7">
-        <v>0.0001857326377305198</v>
+        <v>0.0005285573896985815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H8">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J8">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>1262.969031095951</v>
+        <v>1603.56421218675</v>
       </c>
       <c r="R8">
-        <v>1262.969031095951</v>
+        <v>14432.07790968075</v>
       </c>
       <c r="S8">
-        <v>0.005902434081149581</v>
+        <v>0.004432506768322856</v>
       </c>
       <c r="T8">
-        <v>0.005902434081149581</v>
+        <v>0.004432506768322856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H9">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J9">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>25037.21610404791</v>
+        <v>25679.54982396021</v>
       </c>
       <c r="R9">
-        <v>25037.21610404791</v>
+        <v>231115.9484156419</v>
       </c>
       <c r="S9">
-        <v>0.1170104048405699</v>
+        <v>0.07098236387239333</v>
       </c>
       <c r="T9">
-        <v>0.1170104048405699</v>
+        <v>0.07098236387239333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H10">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J10">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>23177.82179901941</v>
+        <v>34892.58587412851</v>
       </c>
       <c r="R10">
-        <v>23177.82179901941</v>
+        <v>314033.2728671566</v>
       </c>
       <c r="S10">
-        <v>0.1083206016497727</v>
+        <v>0.09644866222129764</v>
       </c>
       <c r="T10">
-        <v>0.1083206016497727</v>
+        <v>0.09644866222129762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H11">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J11">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>22219.19190137535</v>
+        <v>22696.96019673806</v>
       </c>
       <c r="R11">
-        <v>22219.19190137535</v>
+        <v>204272.6417706425</v>
       </c>
       <c r="S11">
-        <v>0.1038404840540521</v>
+        <v>0.06273801131742866</v>
       </c>
       <c r="T11">
-        <v>0.1038404840540521</v>
+        <v>0.06273801131742866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H12">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I12">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J12">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>98963.85038613486</v>
+        <v>102116.103225728</v>
       </c>
       <c r="R12">
-        <v>98963.85038613486</v>
+        <v>919044.9290315524</v>
       </c>
       <c r="S12">
-        <v>0.4625035047882602</v>
+        <v>0.2822651660986819</v>
       </c>
       <c r="T12">
-        <v>0.4625035047882602</v>
+        <v>0.2822651660986819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>152.565397034209</v>
+        <v>153.3769176666667</v>
       </c>
       <c r="H13">
-        <v>152.565397034209</v>
+        <v>460.130753</v>
       </c>
       <c r="I13">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934845</v>
       </c>
       <c r="J13">
-        <v>0.8354502744823105</v>
+        <v>0.5404007466934844</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>8103.814423574568</v>
+        <v>8513.994571575191</v>
       </c>
       <c r="R13">
-        <v>8103.814423574568</v>
+        <v>76625.95114417671</v>
       </c>
       <c r="S13">
-        <v>0.03787284506850599</v>
+        <v>0.02353403641536003</v>
       </c>
       <c r="T13">
-        <v>0.03787284506850599</v>
+        <v>0.02353403641536002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H14">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I14">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J14">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>37.41483845149317</v>
+        <v>958.6221198913685</v>
       </c>
       <c r="R14">
-        <v>37.41483845149317</v>
+        <v>8627.599079022315</v>
       </c>
       <c r="S14">
-        <v>0.0001748567163401978</v>
+        <v>0.002649784151074361</v>
       </c>
       <c r="T14">
-        <v>0.0001748567163401978</v>
+        <v>0.002649784151074361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H15">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I15">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J15">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>741.7152540907456</v>
+        <v>15351.41798689248</v>
       </c>
       <c r="R15">
-        <v>741.7152540907456</v>
+        <v>138162.7618820324</v>
       </c>
       <c r="S15">
-        <v>0.003466375886077555</v>
+        <v>0.04243376324635115</v>
       </c>
       <c r="T15">
-        <v>0.003466375886077555</v>
+        <v>0.04243376324635115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H16">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I16">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J16">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>686.6316092606747</v>
+        <v>20859.03662911957</v>
       </c>
       <c r="R16">
-        <v>686.6316092606747</v>
+        <v>187731.3296620761</v>
       </c>
       <c r="S16">
-        <v>0.003208944726204366</v>
+        <v>0.05765769798091458</v>
       </c>
       <c r="T16">
-        <v>0.003208944726204366</v>
+        <v>0.05765769798091458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H17">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I17">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J17">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>658.2326684537099</v>
+        <v>13568.40464106912</v>
       </c>
       <c r="R17">
-        <v>658.2326684537099</v>
+        <v>122115.6417696221</v>
       </c>
       <c r="S17">
-        <v>0.003076223438539756</v>
+        <v>0.03750523050453188</v>
       </c>
       <c r="T17">
-        <v>0.003076223438539756</v>
+        <v>0.03750523050453188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H18">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I18">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J18">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>2931.755556604517</v>
+        <v>61045.73462374884</v>
       </c>
       <c r="R18">
-        <v>2931.755556604517</v>
+        <v>549411.6116137395</v>
       </c>
       <c r="S18">
-        <v>0.01370143961478299</v>
+        <v>0.1687401289206966</v>
       </c>
       <c r="T18">
-        <v>0.01370143961478299</v>
+        <v>0.1687401289206966</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.51967510111432</v>
+        <v>91.68981500000001</v>
       </c>
       <c r="H19">
-        <v>4.51967510111432</v>
+        <v>275.069445</v>
       </c>
       <c r="I19">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="J19">
-        <v>0.02474980485221139</v>
+        <v>0.3230554195767096</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>240.0715298900213</v>
+        <v>5089.726661969496</v>
       </c>
       <c r="R19">
-        <v>240.0715298900213</v>
+        <v>45807.53995772546</v>
       </c>
       <c r="S19">
-        <v>0.001121964470266515</v>
+        <v>0.01406881477314095</v>
       </c>
       <c r="T19">
-        <v>0.001121964470266515</v>
+        <v>0.01406881477314095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H20">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I20">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J20">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>31.12081901004477</v>
+        <v>87.39944907768957</v>
       </c>
       <c r="R20">
-        <v>31.12081901004477</v>
+        <v>786.595041699206</v>
       </c>
       <c r="S20">
-        <v>0.000145441874056705</v>
+        <v>0.0002415859911566993</v>
       </c>
       <c r="T20">
-        <v>0.000145441874056705</v>
+        <v>0.0002415859911566993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H21">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I21">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J21">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>616.9420244717443</v>
+        <v>1399.618730650384</v>
       </c>
       <c r="R21">
-        <v>616.9420244717443</v>
+        <v>12596.56857585346</v>
       </c>
       <c r="S21">
-        <v>0.002883253303666155</v>
+        <v>0.003868768989437124</v>
       </c>
       <c r="T21">
-        <v>0.002883253303666155</v>
+        <v>0.003868768989437124</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H22">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I22">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J22">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>571.1246907047504</v>
+        <v>1901.759068404335</v>
       </c>
       <c r="R22">
-        <v>571.1246907047504</v>
+        <v>17115.83161563901</v>
       </c>
       <c r="S22">
-        <v>0.002669127869332235</v>
+        <v>0.005256764823234831</v>
       </c>
       <c r="T22">
-        <v>0.002669127869332235</v>
+        <v>0.005256764823234831</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H23">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I23">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J23">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>547.5030920687884</v>
+        <v>1237.05792500072</v>
       </c>
       <c r="R23">
-        <v>547.5030920687884</v>
+        <v>11133.52132500648</v>
       </c>
       <c r="S23">
-        <v>0.002558733294796111</v>
+        <v>0.003419425043101759</v>
       </c>
       <c r="T23">
-        <v>0.002558733294796111</v>
+        <v>0.00341942504310176</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H24">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I24">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J24">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>2438.568168002902</v>
+        <v>5565.658734500194</v>
       </c>
       <c r="R24">
-        <v>2438.568168002902</v>
+        <v>50090.92861050175</v>
       </c>
       <c r="S24">
-        <v>0.01139654853732777</v>
+        <v>0.01538436678953165</v>
       </c>
       <c r="T24">
-        <v>0.01139654853732777</v>
+        <v>0.01538436678953165</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.75936384138981</v>
+        <v>8.359539333333334</v>
       </c>
       <c r="H25">
-        <v>3.75936384138981</v>
+        <v>25.078618</v>
       </c>
       <c r="I25">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957465</v>
       </c>
       <c r="J25">
-        <v>0.02058632962796768</v>
+        <v>0.02945359292957464</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>199.6860855314942</v>
+        <v>464.0403105475714</v>
       </c>
       <c r="R25">
-        <v>199.6860855314942</v>
+        <v>4176.362794928143</v>
       </c>
       <c r="S25">
-        <v>0.0009332247487887121</v>
+        <v>0.001282681293112576</v>
       </c>
       <c r="T25">
-        <v>0.0009332247487887121</v>
+        <v>0.001282681293112576</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H26">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I26">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J26">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>57.78602203257639</v>
+        <v>91.58329749407933</v>
       </c>
       <c r="R26">
-        <v>57.78602203257639</v>
+        <v>824.249677446714</v>
       </c>
       <c r="S26">
-        <v>0.0002700606091371586</v>
+        <v>0.000253150814244136</v>
       </c>
       <c r="T26">
-        <v>0.0002700606091371586</v>
+        <v>0.000253150814244136</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H27">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I27">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J27">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>1145.555501204504</v>
+        <v>1466.619068427981</v>
       </c>
       <c r="R27">
-        <v>1145.555501204504</v>
+        <v>13199.57161585183</v>
       </c>
       <c r="S27">
-        <v>0.005353706754226948</v>
+        <v>0.004053968589441997</v>
       </c>
       <c r="T27">
-        <v>0.005353706754226948</v>
+        <v>0.004053968589441997</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H28">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I28">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J28">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>1060.480572499098</v>
+        <v>1992.797075516092</v>
       </c>
       <c r="R28">
-        <v>1060.480572499098</v>
+        <v>17935.17367964483</v>
       </c>
       <c r="S28">
-        <v>0.004956112556524081</v>
+        <v>0.005508408368052538</v>
       </c>
       <c r="T28">
-        <v>0.004956112556524081</v>
+        <v>0.005508408368052538</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H29">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I29">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J29">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>1016.61931618763</v>
+        <v>1296.276408585165</v>
       </c>
       <c r="R29">
-        <v>1016.61931618763</v>
+        <v>11666.48767726648</v>
       </c>
       <c r="S29">
-        <v>0.004751128770128153</v>
+        <v>0.00358311435925326</v>
       </c>
       <c r="T29">
-        <v>0.004751128770128153</v>
+        <v>0.00358311435925326</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H30">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I30">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J30">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>4528.002744358122</v>
+        <v>5832.089160872856</v>
       </c>
       <c r="R30">
-        <v>4528.002744358122</v>
+        <v>52488.8024478557</v>
       </c>
       <c r="S30">
-        <v>0.0211614355220146</v>
+        <v>0.0161208229034864</v>
       </c>
       <c r="T30">
-        <v>0.0211614355220146</v>
+        <v>0.0161208229034864</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.98049372341085</v>
+        <v>8.759714000000001</v>
       </c>
       <c r="H31">
-        <v>6.98049372341085</v>
+        <v>26.279142</v>
       </c>
       <c r="I31">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101112</v>
       </c>
       <c r="J31">
-        <v>0.03822528247304984</v>
+        <v>0.03086354882101111</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N31">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O31">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P31">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q31">
-        <v>370.7828040900026</v>
+        <v>486.2541155419221</v>
       </c>
       <c r="R31">
-        <v>370.7828040900026</v>
+        <v>4376.287039877298</v>
       </c>
       <c r="S31">
-        <v>0.001732838261018906</v>
+        <v>0.001344083786532775</v>
       </c>
       <c r="T31">
-        <v>0.001732838261018906</v>
+        <v>0.001344083786532775</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H32">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I32">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J32">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N32">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q32">
-        <v>116.238113110635</v>
+        <v>190.1772395354791</v>
       </c>
       <c r="R32">
-        <v>116.238113110635</v>
+        <v>1711.595155819312</v>
       </c>
       <c r="S32">
-        <v>0.0005432340647002043</v>
+        <v>0.0005256801661047528</v>
       </c>
       <c r="T32">
-        <v>0.0005432340647002043</v>
+        <v>0.0005256801661047529</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H33">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I33">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J33">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N33">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q33">
-        <v>2304.315217414569</v>
+        <v>3045.506915731668</v>
       </c>
       <c r="R33">
-        <v>2304.315217414569</v>
+        <v>27409.56224158501</v>
       </c>
       <c r="S33">
-        <v>0.01076912286691379</v>
+        <v>0.008418265956775148</v>
       </c>
       <c r="T33">
-        <v>0.01076912286691379</v>
+        <v>0.00841826595677515</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H34">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I34">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J34">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N34">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q34">
-        <v>2133.184746101569</v>
+        <v>4138.141529578869</v>
       </c>
       <c r="R34">
-        <v>2133.184746101569</v>
+        <v>37243.27376620982</v>
       </c>
       <c r="S34">
-        <v>0.009969351612566773</v>
+        <v>0.0114384819758001</v>
       </c>
       <c r="T34">
-        <v>0.009969351612566773</v>
+        <v>0.0114384819758001</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H35">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I35">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J35">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N35">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q35">
-        <v>2044.956667874748</v>
+        <v>2691.781971222739</v>
       </c>
       <c r="R35">
-        <v>2044.956667874748</v>
+        <v>24226.03774100465</v>
       </c>
       <c r="S35">
-        <v>0.009557021299614899</v>
+        <v>0.007440513897490692</v>
       </c>
       <c r="T35">
-        <v>0.009557021299614899</v>
+        <v>0.007440513897490694</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H36">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I36">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J36">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N36">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O36">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P36">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q36">
-        <v>9108.197391875372</v>
+        <v>12110.62112511609</v>
       </c>
       <c r="R36">
-        <v>9108.197391875372</v>
+        <v>108995.5901260448</v>
       </c>
       <c r="S36">
-        <v>0.04256678776754472</v>
+        <v>0.03347568478874185</v>
       </c>
       <c r="T36">
-        <v>0.04256678776754472</v>
+        <v>0.03347568478874186</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.041447921999</v>
+        <v>18.18997866666666</v>
       </c>
       <c r="H37">
-        <v>14.041447921999</v>
+        <v>54.569936</v>
       </c>
       <c r="I37">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="J37">
-        <v>0.07689116764748929</v>
+        <v>0.06408968313712265</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N37">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O37">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P37">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q37">
-        <v>745.8394263061643</v>
+        <v>1009.730681650843</v>
       </c>
       <c r="R37">
-        <v>745.8394263061643</v>
+        <v>9087.576134857583</v>
       </c>
       <c r="S37">
-        <v>0.003485650036148911</v>
+        <v>0.002791056352210098</v>
       </c>
       <c r="T37">
-        <v>0.003485650036148911</v>
+        <v>0.002791056352210098</v>
       </c>
     </row>
   </sheetData>
